--- a/data.xlsx
+++ b/data.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -167,6 +167,48 @@
   </si>
   <si>
     <t xml:space="preserve">TFCILTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBULHSGFIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELGIRUBCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20MICRONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRTRANSFIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SASTASUNDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADANIPORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHABANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEML</t>
   </si>
 </sst>
 </file>
@@ -181,6 +223,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -266,10 +309,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -280,7 +323,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="16.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
@@ -1910,6 +1953,617 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>162.65</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">D38-C38</f>
+        <v>-9.60000000000002</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">(G38/C38)*100</f>
+        <v>-5.7901085645356</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">E38-D38</f>
+        <v>6.45000000000002</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">(I38/D38)*100</f>
+        <v>4.12932138284252</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">F38-D38</f>
+        <v>-2</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">(K38/F38)*100</f>
+        <v>-1.2970168612192</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">D39-C39</f>
+        <v>-1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">(G39/C39)*100</f>
+        <v>-5.68181818181818</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">E39-D39</f>
+        <v>0.799999999999997</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">(I39/D39)*100</f>
+        <v>4.81927710843372</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">F39-D39</f>
+        <v>-0.300000000000001</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">(K39/F39)*100</f>
+        <v>-1.84049079754602</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>105.85</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>100.65</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">D40-C40</f>
+        <v>-6.2</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">(G40/C40)*100</f>
+        <v>-5.62613430127042</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">E40-D40</f>
+        <v>1.84999999999999</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">(I40/D40)*100</f>
+        <v>1.77884615384615</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">F40-D40</f>
+        <v>-3.34999999999999</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">(K40/F40)*100</f>
+        <v>-3.32836562344758</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">D41-C41</f>
+        <v>-0.949999999999999</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">(G41/C41)*100</f>
+        <v>-5.6047197640118</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">E41-D41</f>
+        <v>0.25</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">(I41/D41)*100</f>
+        <v>1.5625</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">F41-D41</f>
+        <v>-0.25</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">(K41/F41)*100</f>
+        <v>-1.58730158730159</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">D42-C42</f>
+        <v>-1.45</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">(G42/C42)*100</f>
+        <v>-5.57692307692308</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">E42-D42</f>
+        <v>1.15</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">(I42/D42)*100</f>
+        <v>4.68431771894093</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">F42-D42</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">(K42/F42)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">D43-C43</f>
+        <v>-2</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">(G43/C43)*100</f>
+        <v>-5.54785020804438</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">E43-D43</f>
+        <v>1.8</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">(I43/D43)*100</f>
+        <v>5.28634361233481</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">F43-D43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">(K43/F43)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1377.1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1347.75</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1353.85</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1290</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">D44-C44</f>
+        <v>-29.3499999999999</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">(G44/C44)*100</f>
+        <v>-2.13129039285454</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">E44-D44</f>
+        <v>6.09999999999991</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">(I44/D44)*100</f>
+        <v>0.45260619551103</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">F44-D44</f>
+        <v>-57.75</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">(K44/F44)*100</f>
+        <v>-4.47674418604651</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>126.95</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>118.75</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">D45-C45</f>
+        <v>-6.95</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">(G45/C45)*100</f>
+        <v>-5.47459629775502</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">E45-D45</f>
+        <v>20</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">(I45/D45)*100</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">F45-D45</f>
+        <v>-1.25</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">(K45/F45)*100</f>
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>83.95</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">D46-C46</f>
+        <v>-4.40000000000001</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">(G46/C46)*100</f>
+        <v>-5.36585365853659</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <f aca="false">E46-D46</f>
+        <v>6.35000000000001</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">(I46/D46)*100</f>
+        <v>8.18298969072166</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">F46-D46</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">(K46/F46)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>755.5</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>715</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>730.9</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>707.45</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">D47-C47</f>
+        <v>-40.5</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">(G47/C47)*100</f>
+        <v>-5.36068828590338</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">E47-D47</f>
+        <v>15.9</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">(I47/D47)*100</f>
+        <v>2.22377622377622</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">F47-D47</f>
+        <v>-7.54999999999995</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">(K47/F47)*100</f>
+        <v>-1.067213230617</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">D48-C48</f>
+        <v>-2.4</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">(G48/C48)*100</f>
+        <v>-5.35117056856187</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">E48-D48</f>
+        <v>2.3</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">(I48/D48)*100</f>
+        <v>5.41813898704357</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">F48-D48</f>
+        <v>-1.25</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">(K48/F48)*100</f>
+        <v>-3.03398058252427</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">D49-C49</f>
+        <v>-1.35</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">(G49/C49)*100</f>
+        <v>-5.33596837944665</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">E49-D49</f>
+        <v>0.350000000000001</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">(I49/D49)*100</f>
+        <v>1.46137787056368</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">F49-D49</f>
+        <v>-0.75</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">(K49/F49)*100</f>
+        <v>-3.23275862068966</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">D50-C50</f>
+        <v>-0.25</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">(G50/C50)*100</f>
+        <v>-5.31914893617021</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <f aca="false">E50-D50</f>
+        <v>0.0999999999999996</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">(I50/D50)*100</f>
+        <v>2.24719101123595</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">F50-D50</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">(K50/F50)*100</f>
+        <v>-2.29885057471266</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1215.4</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1151</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1120.05</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">D51-C51</f>
+        <v>-64.4000000000001</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">(G51/C51)*100</f>
+        <v>-5.29866710547968</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">E51-D51</f>
+        <v>24</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">(I51/D51)*100</f>
+        <v>2.08514335360556</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">F51-D51</f>
+        <v>-30.95</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">(K51/F51)*100</f>
+        <v>-2.76326949689746</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -209,6 +209,120 @@
   </si>
   <si>
     <t xml:space="preserve">BEML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-04-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUVIDHAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEDMUTHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORCHPHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRCSYSTEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGISPICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODIRUBBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERNEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARVESHWAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNCODOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMPNET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JINDALPHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUJRAFFIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDOTHAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBREALTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGLOBAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMARTLINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX&amp;KINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAARII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGRITECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIPCLOTHNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMRVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAYNECOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELINV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPINFRATEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2RETAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPA</t>
   </si>
 </sst>
 </file>
@@ -309,10 +423,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K94" activeCellId="0" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -531,7 +645,7 @@
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">(I5/D5)*100</f>
-        <v>6.74157303370786</v>
+        <v>6.74157303370787</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">F5-D5</f>
@@ -759,7 +873,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">(K10/F10)*100</f>
-        <v>-1.00671140939598</v>
+        <v>-1.00671140939597</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,7 +917,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">(K11/F11)*100</f>
-        <v>-8.5128316423417</v>
+        <v>-8.51283164234171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +997,7 @@
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">(I13/D13)*100</f>
-        <v>5.18446601941748</v>
+        <v>5.18446601941749</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">F13-D13</f>
@@ -927,7 +1041,7 @@
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">(I14/D14)*100</f>
-        <v>8.33333333333334</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">F14-D14</f>
@@ -1059,7 +1173,7 @@
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">(I17/D17)*100</f>
-        <v>6.79611650485436</v>
+        <v>6.79611650485437</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">F17-D17</f>
@@ -1067,7 +1181,7 @@
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">(K17/F17)*100</f>
-        <v>-1.98019801980199</v>
+        <v>-1.980198019802</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,7 +1261,7 @@
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">(I19/D19)*100</f>
-        <v>7.6923076923077</v>
+        <v>7.69230769230769</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">F19-D19</f>
@@ -1191,7 +1305,7 @@
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">(I20/D20)*100</f>
-        <v>7.6923076923077</v>
+        <v>7.69230769230769</v>
       </c>
       <c r="K20" s="0" t="n">
         <f aca="false">F20-D20</f>
@@ -1235,7 +1349,7 @@
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">(I21/D21)*100</f>
-        <v>3.68663594470047</v>
+        <v>3.68663594470046</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="false">F21-D21</f>
@@ -1419,7 +1533,7 @@
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">(K25/F25)*100</f>
-        <v>-3.65853658536586</v>
+        <v>-3.65853658536585</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +1965,7 @@
       </c>
       <c r="J35" s="0" t="n">
         <f aca="false">(I35/D35)*100</f>
-        <v>3.9795918367347</v>
+        <v>3.97959183673469</v>
       </c>
       <c r="K35" s="0" t="n">
         <f aca="false">F35-D35</f>
@@ -2564,6 +2678,1678 @@
       <c r="L51" s="0" t="n">
         <f aca="false">(K51/F51)*100</f>
         <v>-2.76326949689746</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">D52-C52</f>
+        <v>-0.3</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="false">(G52/C52)*100</f>
+        <v>.0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <f aca="false">E52-D52</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">(I52/D52)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">F52-D52</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">(K52/F52)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">D53-C53</f>
+        <v>-5.35</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">(G53/C53)*100</f>
+        <v>-9.96275605214153</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <f aca="false">E53-D53</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">(I53/D53)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">F53-D53</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">(K53/F53)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">D54-C54</f>
+        <v>-1.55</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">(G54/C54)*100</f>
+        <v>-6.66666666666667</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <f aca="false">E54-D54</f>
+        <v>3.8</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">(I54/D54)*100</f>
+        <v>17.5115207373272</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">F54-D54</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">(K54/F54)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1513.7</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1438.05</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1438.05</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1438.05</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">D55-C55</f>
+        <v>-75.6500000000001</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">(G55/C55)*100</f>
+        <v>-4.99768778489794</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <f aca="false">E55-D55</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">(I55/D55)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">F55-D55</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">(K55/F55)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">D56-C56</f>
+        <v>-1.9</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">(G56/C56)*100</f>
+        <v>-5</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <f aca="false">E56-D56</f>
+        <v>3.8</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">(I56/D56)*100</f>
+        <v>10.5263157894737</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">F56-D56</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">(K56/F56)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>303.65</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">D57-C57</f>
+        <v>-15.15</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">(G57/C57)*100</f>
+        <v>-4.98929688786431</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <f aca="false">E57-D57</f>
+        <v>30.3</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">(I57/D57)*100</f>
+        <v>10.5025996533796</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">F57-D57</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">(K57/F57)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>274.55</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>260.85</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>260.85</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>260.85</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">D58-C58</f>
+        <v>-13.7</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <f aca="false">(G58/C58)*100</f>
+        <v>-4.98998360954288</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <f aca="false">E58-D58</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">(I58/D58)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">F58-D58</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">(K58/F58)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">D59-C59</f>
+        <v>-1.75</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">(G59/C59)*100</f>
+        <v>-4.97866287339972</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">E59-D59</f>
+        <v>3.4</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">(I59/D59)*100</f>
+        <v>10.1796407185629</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">F59-D59</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">(K59/F59)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>77.45</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>77.45</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">D60-C60</f>
+        <v>-4.05</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <f aca="false">(G60/C60)*100</f>
+        <v>-4.96932515337423</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <f aca="false">E60-D60</f>
+        <v>8.09999999999999</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <f aca="false">(I60/D60)*100</f>
+        <v>10.458360232408</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <f aca="false">F60-D60</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">(K60/F60)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>82.15</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>85.05</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>82.15</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">D61-C61</f>
+        <v>-4.3</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <f aca="false">(G61/C61)*100</f>
+        <v>-4.97397339502602</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <f aca="false">E61-D61</f>
+        <v>2.89999999999999</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <f aca="false">(I61/D61)*100</f>
+        <v>3.5301278149726</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">F61-D61</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">(K61/F61)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <f aca="false">D62-C62</f>
+        <v>-2.25</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <f aca="false">(G62/C62)*100</f>
+        <v>-4.91803278688525</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <f aca="false">E62-D62</f>
+        <v>4.5</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <f aca="false">(I62/D62)*100</f>
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <f aca="false">F62-D62</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">(K62/F62)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <f aca="false">D63-C63</f>
+        <v>-1.45</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <f aca="false">(G63/C63)*100</f>
+        <v>-4.92359932088285</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <f aca="false">E63-D63</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <f aca="false">(I63/D63)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">F63-D63</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">(K63/F63)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">D64-C64</f>
+        <v>-0.0999999999999996</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <f aca="false">(G64/C64)*100</f>
+        <v>-4.87804878048779</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <f aca="false">E64-D64</f>
+        <v>0.2</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <f aca="false">(I64/D64)*100</f>
+        <v>10.2564102564102</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <f aca="false">F64-D64</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">(K64/F64)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <f aca="false">D65-C65</f>
+        <v>-0.4</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <f aca="false">(G65/C65)*100</f>
+        <v>-4.84848484848485</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <f aca="false">E65-D65</f>
+        <v>0.800000000000001</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <f aca="false">(I65/D65)*100</f>
+        <v>10.1910828025478</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <f aca="false">F65-D65</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <f aca="false">(K65/F65)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <f aca="false">D66-C66</f>
+        <v>-2.9</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <f aca="false">(G66/C66)*100</f>
+        <v>-4.76973684210526</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <f aca="false">E66-D66</f>
+        <v>1.6</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">(I66/D66)*100</f>
+        <v>2.76338514680484</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <f aca="false">F66-D66</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">(K66/F66)*100</f>
+        <v>-0.17301038062284</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>43.55</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <f aca="false">D67-C67</f>
+        <v>-2.05</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <f aca="false">(G67/C67)*100</f>
+        <v>-4.70723306544202</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <f aca="false">E67-D67</f>
+        <v>4.2</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <f aca="false">(I67/D67)*100</f>
+        <v>10.1204819277109</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <f aca="false">F67-D67</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <f aca="false">(K67/F67)*100</f>
+        <v>-0.24154589371981</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <f aca="false">D68-C68</f>
+        <v>-2.35</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <f aca="false">(G68/C68)*100</f>
+        <v>-4.70941883767535</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <f aca="false">E68-D68</f>
+        <v>3.95</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <f aca="false">(I68/D68)*100</f>
+        <v>8.30704521556257</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <f aca="false">F68-D68</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <f aca="false">(K68/F68)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <f aca="false">D69-C69</f>
+        <v>-0.25</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <f aca="false">(G69/C69)*100</f>
+        <v>-4.67289719626168</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <f aca="false">E69-D69</f>
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <f aca="false">(I69/D69)*100</f>
+        <v>9.80392156862745</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <f aca="false">F69-D69</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <f aca="false">(K69/F69)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <f aca="false">D70-C70</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <f aca="false">(G70/C70)*100</f>
+        <v>-4.62962962962963</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <f aca="false">E70-D70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <f aca="false">(I70/D70)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <f aca="false">F70-D70</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <f aca="false">(K70/F70)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <f aca="false">D71-C71</f>
+        <v>-0.899999999999999</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <f aca="false">(G71/C71)*100</f>
+        <v>-4.61538461538461</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <f aca="false">E71-D71</f>
+        <v>1.35</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <f aca="false">(I71/D71)*100</f>
+        <v>7.25806451612902</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <f aca="false">F71-D71</f>
+        <v>-0.0500000000000007</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <f aca="false">(K71/F71)*100</f>
+        <v>-0.269541778975745</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <f aca="false">D72-C72</f>
+        <v>-0.35</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <f aca="false">(G72/C72)*100</f>
+        <v>-4.82758620689655</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <f aca="false">E72-D72</f>
+        <v>0.6</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <f aca="false">(I72/D72)*100</f>
+        <v>8.69565217391304</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <f aca="false">F72-D72</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <f aca="false">(K72/F72)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <f aca="false">D73-C73</f>
+        <v>-3.65000000000001</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <f aca="false">(G73/C73)*100</f>
+        <v>-4.46483180428135</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <f aca="false">E73-D73</f>
+        <v>4.85000000000001</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <f aca="false">(I73/D73)*100</f>
+        <v>6.2099871959027</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <f aca="false">F73-D73</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <f aca="false">(K73/F73)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <f aca="false">D74-C74</f>
+        <v>-0.0499999999999998</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <f aca="false">(G74/C74)*100</f>
+        <v>-4.34782608695651</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <f aca="false">E74-D74</f>
+        <v>0.0499999999999998</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">(I74/D74)*100</f>
+        <v>4.54545454545453</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <f aca="false">F74-D74</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <f aca="false">(K74/F74)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>91.45</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <f aca="false">D75-C75</f>
+        <v>-4.09999999999999</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <f aca="false">(G75/C75)*100</f>
+        <v>-4.29094714809</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <f aca="false">E75-D75</f>
+        <v>4</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <f aca="false">(I75/D75)*100</f>
+        <v>4.37397484964462</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <f aca="false">F75-D75</f>
+        <v>-0.650000000000006</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <f aca="false">(K75/F75)*100</f>
+        <v>-0.715859030837011</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <f aca="false">D76-C76</f>
+        <v>-1.6</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <f aca="false">(G76/C76)*100</f>
+        <v>-4.25531914893617</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <f aca="false">E76-D76</f>
+        <v>1.55</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <f aca="false">(I76/D76)*100</f>
+        <v>4.30555555555555</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <f aca="false">F76-D76</f>
+        <v>-0.25</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <f aca="false">(K76/F76)*100</f>
+        <v>-0.699300699300699</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <f aca="false">D77-C77</f>
+        <v>-1</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <f aca="false">(G77/C77)*100</f>
+        <v>-3.81679389312977</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <f aca="false">E77-D77</f>
+        <v>2.05</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <f aca="false">(I77/D77)*100</f>
+        <v>8.13492063492064</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <f aca="false">F77-D77</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <f aca="false">(K77/F77)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <f aca="false">D78-C78</f>
+        <v>-0.449999999999999</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <f aca="false">(G78/C78)*100</f>
+        <v>-3.64372469635627</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <f aca="false">E78-D78</f>
+        <v>0.699999999999999</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <f aca="false">(I78/D78)*100</f>
+        <v>5.88235294117646</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <f aca="false">F78-D78</f>
+        <v>-0.15</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <f aca="false">(K78/F78)*100</f>
+        <v>-1.27659574468085</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <f aca="false">D79-C79</f>
+        <v>-0.4</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <f aca="false">(G79/C79)*100</f>
+        <v>-3.60360360360361</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <f aca="false">E79-D79</f>
+        <v>0.5</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <f aca="false">(I79/D79)*100</f>
+        <v>4.67289719626168</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <f aca="false">F79-D79</f>
+        <v>-0.149999999999999</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <f aca="false">(K79/F79)*100</f>
+        <v>-1.42180094786729</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <f aca="false">D80-C80</f>
+        <v>-0.449999999999999</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <f aca="false">(G80/C80)*100</f>
+        <v>-3.50194552529182</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <f aca="false">E80-D80</f>
+        <v>0.35</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <f aca="false">(I80/D80)*100</f>
+        <v>2.82258064516129</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <f aca="false">F80-D80</f>
+        <v>-0.15</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <f aca="false">(K80/F80)*100</f>
+        <v>-1.22448979591837</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <f aca="false">D81-C81</f>
+        <v>-1.15</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <f aca="false">(G81/C81)*100</f>
+        <v>-3.35276967930029</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <f aca="false">E81-D81</f>
+        <v>2.6</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <f aca="false">(I81/D81)*100</f>
+        <v>7.84313725490197</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <f aca="false">F81-D81</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <f aca="false">(K81/F81)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>393.25</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <f aca="false">D82-C82</f>
+        <v>-13.15</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <f aca="false">(G82/C82)*100</f>
+        <v>-3.34392879847425</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <f aca="false">E82-D82</f>
+        <v>39.9</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <f aca="false">(I82/D82)*100</f>
+        <v>10.4972375690608</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <f aca="false">F82-D82</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <f aca="false">(K82/F82)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>527.15</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>542</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>568.9</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>532.65</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <f aca="false">D83-C83</f>
+        <v>14.85</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <f aca="false">(G83/C83)*100</f>
+        <v>2.81703499952576</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <f aca="false">E83-D83</f>
+        <v>26.9</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <f aca="false">(I83/D83)*100</f>
+        <v>4.96309963099631</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <f aca="false">F83-D83</f>
+        <v>-9.35000000000002</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <f aca="false">(K83/F83)*100</f>
+        <v>-1.75537407303108</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <f aca="false">D84-C84</f>
+        <v>-0.1</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <f aca="false">(G84/C84)*100</f>
+        <v>-3.22580645161291</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <f aca="false">E84-D84</f>
+        <v>0.2</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <f aca="false">(I84/D84)*100</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <f aca="false">F84-D84</f>
+        <v>-0.0499999999999998</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <f aca="false">(K84/F84)*100</f>
+        <v>-1.69491525423728</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <f aca="false">D85-C85</f>
+        <v>-0.05</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <f aca="false">(G85/C85)*100</f>
+        <v>-3.22580645161291</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <f aca="false">E85-D85</f>
+        <v>0.05</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <f aca="false">(I85/D85)*100</f>
+        <v>3.33333333333334</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <f aca="false">F85-D85</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <f aca="false">(K85/F85)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <f aca="false">D86-C86</f>
+        <v>-0.05</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <f aca="false">(G86/C86)*100</f>
+        <v>-3.125</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <f aca="false">E86-D86</f>
+        <v>0.0999999999999999</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <f aca="false">(I86/D86)*100</f>
+        <v>6.4516129032258</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <f aca="false">F86-D86</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <f aca="false">(K86/F86)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>103.75</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>99.45</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <f aca="false">D87-C87</f>
+        <v>-3.25</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <f aca="false">(G87/C87)*100</f>
+        <v>-3.13253012048193</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <f aca="false">E87-D87</f>
+        <v>8.40000000000001</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <f aca="false">(I87/D87)*100</f>
+        <v>8.35820895522389</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <f aca="false">F87-D87</f>
+        <v>-1.05</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <f aca="false">(K87/F87)*100</f>
+        <v>-1.05580693815988</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>9.95</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>8.95</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <f aca="false">D88-C88</f>
+        <v>-0.300000000000001</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <f aca="false">(G88/C88)*100</f>
+        <v>-3.06122448979593</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <f aca="false">E88-D88</f>
+        <v>0.449999999999999</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <f aca="false">(I88/D88)*100</f>
+        <v>4.73684210526315</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <f aca="false">F88-D88</f>
+        <v>-0.550000000000001</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <f aca="false">(K88/F88)*100</f>
+        <v>-6.14525139664805</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <f aca="false">D89-C89</f>
+        <v>0.0999999999999943</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <f aca="false">(G89/C89)*100</f>
+        <v>0.0558659217877063</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <f aca="false">E89-D89</f>
+        <v>6.90000000000001</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <f aca="false">(I89/D89)*100</f>
+        <v>3.85259631490788</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <f aca="false">F89-D89</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <f aca="false">(K89/F89)*100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
